--- a/src/main/resources/templates/totalSummary.xlsx
+++ b/src/main/resources/templates/totalSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Documents/otherProject/angel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F7C5E-BDBD-8443-8845-EE9D81EBFA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B2DCBA-2146-8446-AA70-9AB44C3157E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0D430358-6527-4157-A955-F7DECFB17DCE}"/>
   </bookViews>
@@ -92,61 +92,7 @@
             <rFont val="Microsoft JhengHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:grid(lastCell="A3" headers="headers" </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>data="dataList"</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> area=[</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>A</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>A</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>2])</t>
+          <t>jx:grid(lastCell="A3" headers="headers" data="dataList" areas=["A2:A2", "A3:A3"])</t>
         </r>
       </text>
     </comment>
@@ -173,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +157,16 @@
       <name val="Microsoft JhengHei UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,11 +190,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205082FF-0C2D-4EFC-939A-1C8FAD85AA5D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -566,13 +525,13 @@
     <col min="1" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="20">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
